--- a/Output_testing/R1_201907/Country/HKD/MN/POLAND_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/POLAND_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>4150.681894</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>41.1579612983361</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>3403.646394</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>34.17147499347003</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>4324.927062</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>32.82499038927082</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>2334.265129</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>32.30670644076409</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-0.893202539384963</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>752.1459149999999</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>7.458242585398088</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>811.5856230000001</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>8.14804906593487</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>1091.706117</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>8.285745004416718</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>920.149459</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>12.73505656415128</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>94.20397059479792</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>451.192878</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>4.474006798172831</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>448.726619</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>4.505065645800705</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>1916.566923</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>14.54620850849146</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>838.128373</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>11.59986797120432</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>127.3892995411952</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>1048.76251</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>10.39947842308096</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>1204.697597</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>12.09476221829257</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>1096.248251</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>8.320218534896982</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>562.31893</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>7.782608912714719</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-10.59220540116962</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>829.359857</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>8.22389230698284</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>736.166955</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>7.390870784387796</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>698.865678</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>5.304195616453437</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>424.48574</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>5.874969394048859</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>15.58201036951134</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>453.610337</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>4.497978204920754</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>573.316747</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>5.755908991598991</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>794.8436850000001</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>6.032641925996394</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>393.992572</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>5.452937717018695</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>19.10133314932938</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>112.064664</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1.111227798615549</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>335.02347</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>3.363523939358595</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>454.031674</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>3.445973798361029</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>320.89611</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>4.44126774416341</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>32.15316177863163</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>419.348532</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>4.158239800433634</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>411.706397</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>4.133394959751845</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>362.048638</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>2.747848204705421</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>144.560346</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.000744732539457</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-36.3427454442447</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>187.851736</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.862728746158462</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>165.31638</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.6597213374278</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>187.260673</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.421256290197614</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>113.978909</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.577491394509695</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>7.236650191159777</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>34.438933</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.3414947971847611</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>89.634912</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.8999046315002975</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>393.53832</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>2.986846110148293</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>92.333628</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.277916281808413</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-67.00405343189298</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>1645.303415</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>16.31474924071602</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>1780.669036</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>17.87732343247651</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>1855.677612</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>14.08407561706183</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>1080.217636</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>14.95043284707705</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>3.465364070813282</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,515 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>1.621702</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>15.42068209785298</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>1.823662</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>16.21483156745037</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>0.8161350000000001</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>19.8683694808056</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>2.221364</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>47.80258207849701</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>180.8728010226596</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>1.522649033524657</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>3.247452892696603</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>0.631063</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>15.36289075908475</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>0.650072</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>13.98920669324465</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>2.272115890509774</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>0.504199</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>4.48301377200211</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>4.845157033967832</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>6.548913546378983</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>123.2103564617867</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>NON-ELECTRIC PARTS AND ACCESSORIES OF MACHINERY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>2.30485</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>21.91670179431021</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>1.478315</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>13.14422778378636</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>4.5696600396733</v>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>NAILS, SCREWS, NUTS, BOLTS, RIVETS AND THE LIKE, OF IRON, STEEL, COPPER OR ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>0.516289</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>4.909365925193667</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>4.392508639732491</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>9.602698340437859</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>4.518271538732684</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-4.790364854937734</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>3.948930848035079</v>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>3.581485850731468</v>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>2.196120367703462</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>3.916207487305808</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>7.45030686197419</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>3.315505167470993</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-27.40217882991556</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>0.194172744707818</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>1.460667866037281</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>2.689934094462739</v>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>0.8691140000000001</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>8.264360961997578</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>0.580707</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>5.163273783760042</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>1.049195</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>25.54209036178309</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>2.266022000648166</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-24.61808289784523</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>4.554008</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>43.30383118419985</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>5.560285</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>49.43848407326622</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>0.6518040000000001</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>15.8678192959094</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>6.769488142124927</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-20.15944000568523</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1808,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>4150.681894</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>41.20092570771142</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>3403.646394</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>34.21010329234433</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>4324.927062</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>32.83522722233608</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>2334.265129</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>32.32749780407866</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-0.893202539384963</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>752.1459149999999</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>7.46602817480901</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>811.5856230000001</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>8.157259826507001</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>1091.706117</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>8.288329004820849</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>920.149459</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>12.74325236053624</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>94.20397059479792</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>450.953933</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>4.476305331418219</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>448.22242</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>4.505090573796116</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>1916.367898</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>14.54923388773223</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>837.8240479999999</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>11.6031185727079</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>127.3908458986805</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>1048.76251</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>10.41033434096816</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>1204.697597</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>12.10843444314886</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>1096.248251</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>8.322813286249477</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>562.1354250000001</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>7.785076121608947</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-10.62138239748354</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>829.128904</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>8.230184641516686</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>735.726504</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>7.394798631586458</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>698.5596410000001</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>5.303526328136842</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>424.33167</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>5.876616567545885</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>15.60686351757459</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>453.610337</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>4.502673602138237</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>573.316747</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>5.762415616579717</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>794.8436850000001</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>6.034523271508047</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>393.992572</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>5.456447019627865</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>19.10133314932938</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>112.030009</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.112043802854539</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>333.754698</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>3.354573704545992</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>454.031674</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>3.447048463063219</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>320.89611</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>4.444125974587347</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>32.15316177863163</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>419.348532</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>4.16258054792041</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>411.706397</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>4.138067453868688</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>362.048638</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>2.7487051512887</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>144.560346</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.002032335493048</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-36.3427454442447</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>186.230034</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.848575725947591</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>163.492718</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.643267873004002</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>186.444538</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.415503355740401</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>111.757545</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.547742690276346</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>5.934945149593363</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>34.438933</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.3418512803973146</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>89.634912</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.9009219064370864</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>393.53832</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>2.987777590848169</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>92.333628</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.278738699957085</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-67.00405343189298</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>1636.913261</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>16.24849684431842</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>1773.459244</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>17.82506667818175</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>1852.891099</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>14.06731243827599</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>1078.433946</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>14.93535185358068</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>3.372040799963116</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2266,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>1061.6118</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>39.45977119815246</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>1248.414112</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>41.94190751658267</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>921.439604</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>33.45883578187913</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>440.987392</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>31.3447130371352</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-22.5852306295977</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>36.930271</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>1.372686366095182</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>56.047856</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>1.882992166027952</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>135.013051</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>4.902523705524895</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>92.995098</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>6.609950110932574</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>113.6483607390473</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>237.076216</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>8.812047153096614</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>184.455059</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>6.196979793147196</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>247.78083</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>8.997288661002365</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>85.331074</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>6.065202942764742</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-49.05893674306976</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>MEAT AND EDIBLE MEAT OFFAL, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>205.568836</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>7.640927911719261</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>317.881509</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>10.67959479435117</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>255.565901</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>9.279976111171123</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>78.752869</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>5.597634137476884</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-52.00797210257713</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>58.988694</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>2.192590896708033</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>60.642682</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>2.037360628619306</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>64.175595</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>2.330310836421769</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>66.323402</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>4.714166529587674</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>89.97120359574815</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>67.551395</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>2.510863755297389</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>81.679936</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>2.744131365340087</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>94.979707</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>3.448853734231284</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>61.063723</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>4.340316546769012</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>11.9062882111659</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>022</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>MILK AND CREAM AND MILK PRODUCTS OTHER THAN BUTTER OR CHEESE</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>3.374593</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.125432542919066</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>1.914608</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.06432345717228588</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>72.037177</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>2.615776514239299</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>38.109547</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>2.708768632301889</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-15.21910182836374</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>53.741938</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>1.997570653628092</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>56.578273</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1.900812135015313</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>67.5017</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>2.45108663171555</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>38.100876</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.708152310811353</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-20.22473244021845</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>27.844899</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>1.034985993538942</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>31.439209</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1.056236375091948</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>36.542652</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>1.326917778435706</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>27.950797</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.98670013478349</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>49.96290468844178</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>33.02576</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>1.227556940536169</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>34.274763</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.151500072036024</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>37.133228</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>1.34836246706743</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>24.578264</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.746985619105752</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>59.63382169058571</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>904.650412</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>33.62556658830879</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>903.203548</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>30.34416169661604</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>821.780543</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>29.84006777831145</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>452.702569</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>32.17740999833143</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>2.555228650568631</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
